--- a/Lista elementów.xlsx
+++ b/Lista elementów.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Robot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Nr porządkowy</t>
   </si>
@@ -262,17 +257,26 @@
   <si>
     <t>160x100x1,5 mm</t>
   </si>
+  <si>
+    <t>przewlekana 7,5mm</t>
+  </si>
+  <si>
+    <t>FFC</t>
+  </si>
+  <si>
+    <t>http://electropark.pl/kondensatory-elektrolityczne-smd/507-10uf-35v-kondensator-elektrolityczny-smd.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$zł-415]_-;\-* #,##0.00\ [$zł-415]_-;_-* &quot;-&quot;??\ [$zł-415]_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +333,14 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +359,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -358,8 +370,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,10 +398,12 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Hiperłącze" xfId="6" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -447,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -499,7 +517,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -693,31 +711,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="28.19921875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -745,7 +763,7 @@
       </c>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="27.6">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -765,7 +783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -778,7 +796,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
@@ -803,7 +821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -819,7 +837,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -839,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>4</v>
       </c>
@@ -855,7 +873,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>5</v>
       </c>
@@ -868,11 +886,11 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
         <v>30</v>
       </c>
@@ -885,7 +903,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>6</v>
       </c>
@@ -905,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>7</v>
       </c>
@@ -925,7 +943,7 @@
         <v>11.99</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>8</v>
       </c>
@@ -948,7 +966,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>9</v>
       </c>
@@ -968,7 +986,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>10</v>
       </c>
@@ -985,7 +1003,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
@@ -998,7 +1016,7 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1008,13 +1026,16 @@
       <c r="C17" t="s">
         <v>33</v>
       </c>
+      <c r="D17" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>12</v>
       </c>
@@ -1024,13 +1045,14 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
+      <c r="D18" s="10"/>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>13</v>
       </c>
@@ -1040,13 +1062,14 @@
       <c r="C19" t="s">
         <v>34</v>
       </c>
+      <c r="D19" s="10"/>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>14</v>
       </c>
@@ -1056,13 +1079,16 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
+      <c r="D20">
+        <v>805</v>
+      </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>15</v>
       </c>
@@ -1072,13 +1098,16 @@
       <c r="C21" t="s">
         <v>38</v>
       </c>
+      <c r="D21">
+        <v>805</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.4">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1088,13 +1117,16 @@
       <c r="C22" t="s">
         <v>43</v>
       </c>
+      <c r="D22">
+        <v>805</v>
+      </c>
       <c r="E22">
         <v>12</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="14.4">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1104,13 +1136,16 @@
       <c r="C23" t="s">
         <v>44</v>
       </c>
+      <c r="D23">
+        <v>805</v>
+      </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="14.4">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1120,13 +1155,16 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
+      <c r="D24">
+        <v>805</v>
+      </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="14.4">
       <c r="A25">
         <v>19</v>
       </c>
@@ -1136,13 +1174,16 @@
       <c r="C25" t="s">
         <v>46</v>
       </c>
+      <c r="D25">
+        <v>805</v>
+      </c>
       <c r="E25">
         <v>8</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>20</v>
       </c>
@@ -1152,13 +1193,16 @@
       <c r="C26" t="s">
         <v>41</v>
       </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="14.4">
       <c r="A27">
         <v>21</v>
       </c>
@@ -1168,13 +1212,16 @@
       <c r="C27" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="D27">
+        <v>805</v>
+      </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="14.4">
       <c r="A28">
         <v>22</v>
       </c>
@@ -1184,13 +1231,16 @@
       <c r="C28" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="D28">
+        <v>805</v>
+      </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="14.4">
       <c r="A29">
         <v>23</v>
       </c>
@@ -1200,13 +1250,16 @@
       <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="D29">
+        <v>805</v>
+      </c>
       <c r="E29">
         <v>8</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
@@ -1219,7 +1272,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>24</v>
       </c>
@@ -1236,7 +1289,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>25</v>
       </c>
@@ -1253,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="7" t="s">
         <v>60</v>
       </c>
@@ -1264,20 +1317,23 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>18</v>
       </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>27</v>
       </c>
@@ -1290,7 +1346,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>28</v>
       </c>
@@ -1303,7 +1359,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="27.6">
       <c r="A39">
         <v>29</v>
       </c>
@@ -1316,7 +1372,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>30</v>
       </c>
@@ -1326,7 +1382,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="14.4">
       <c r="A41">
         <v>31</v>
       </c>
@@ -1342,7 +1398,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>32</v>
       </c>
@@ -1359,11 +1415,11 @@
         <v>28.99</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
@@ -1383,8 +1439,11 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1393,14 +1452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
@@ -1412,14 +1471,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
